--- a/pred_ohlcv/54_21/2019-10-30 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 MIX ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>1977435.868414163</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1963338.083314163</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1962338.083314163</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1853689.248414163</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1577282.062314163</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-835524.7423333239</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-835524.7423333239</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-835312.7423333239</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-835312.7423333239</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1203983.623933324</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1269897.941133324</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1213876.239433324</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1213876.239433324</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1122568.982833324</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1122568.982833324</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1609495.990233324</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1609485.990233324</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1960334.484633324</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1971788.570233324</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1984357.418533324</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2087539.622633324</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2087539.622633324</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3257106.459133324</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-3227327.235033324</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-3240276.503033324</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3492731.900333324</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3160938.044433324</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-7109059.042070055</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-7079226.720370055</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-6950243.246370055</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-6950243.246370055</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-7228040.288570055</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-7225329.099270055</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-7397343.944970055</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-7353321.6148639</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-7568798.035863899</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-8078360.825463898</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 MIX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1963338.083314163</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1962338.083314163</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1853689.248414163</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1577282.062314163</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-835524.7423333239</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-835524.7423333239</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-835312.7423333239</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-835312.7423333239</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1203983.623933324</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1269897.941133324</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1213876.239433324</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1213876.239433324</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1122568.982833324</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1122568.982833324</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1609495.990233324</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1609485.990233324</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1960334.484633324</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1971788.570233324</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1984357.418533324</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2087539.622633324</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2087539.622633324</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3257106.459133324</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-3227327.235033324</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-3227327.235033324</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-3240276.503033324</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3492731.900333324</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3160938.044433324</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-7109059.042070055</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-7079226.720370055</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-6950243.246370055</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-6950243.246370055</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-7228040.288570055</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-7225329.099270055</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-7397343.944970055</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-7397343.944970055</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-7353321.6148639</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-7583441.833163899</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-7532121.923063899</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-7532111.923063899</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-7995204.682363898</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-7568798.035863899</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-7568798.035863899</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-7728376.591263899</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-7728376.591263899</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-8078360.825463898</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
